--- a/pcb/bom.xlsx
+++ b/pcb/bom.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrew\Documents\Projects\coincidenceCounter\pcb\logic\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrew\Documents\Projects\nonmodular\coincidenceCounter\pcb\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="78">
   <si>
     <t>QTY</t>
   </si>
@@ -56,141 +56,27 @@
     <t>Ref-Des</t>
   </si>
   <si>
-    <t>U1</t>
-  </si>
-  <si>
     <t>Price Point</t>
   </si>
   <si>
-    <t>J2</t>
-  </si>
-  <si>
-    <t>J1</t>
-  </si>
-  <si>
-    <t>U2</t>
-  </si>
-  <si>
-    <t>U3</t>
-  </si>
-  <si>
-    <t>IC GATE AND 1CH 2-INP SOT-353</t>
-  </si>
-  <si>
     <t>IC OPAMP GP 700KHZ 8SOIC</t>
   </si>
   <si>
     <t>http://www.digikey.com/product-detail/en/texas-instruments/LM358DR/296-1014-1-ND/404838</t>
   </si>
   <si>
-    <t>http://www.digikey.com/product-detail/en/diodes-incorporated/74AHCT1G08SE-7/74AHCT1G08SE-7DICT-ND/2712017</t>
-  </si>
-  <si>
-    <t>http://www.digikey.com/product-detail/en/analog-devices-inc/AD8561ARZ/AD8561ARZ-ND/1016801</t>
-  </si>
-  <si>
-    <t>IC COMPARATOR SNGL 7NS 8-SOIC</t>
-  </si>
-  <si>
-    <t>http://www.digikey.com/product-detail/en/linx-technologies-inc/CONSMA003.062/CONSMA003.062-ND/1577208</t>
-  </si>
-  <si>
-    <t>CONN SMA JACK 50 OHM EDGE MNT</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>296-1014-1-ND</t>
   </si>
   <si>
-    <t>AD8561ARZ-ND</t>
-  </si>
-  <si>
-    <t>74AHCT1G08SE-7DICT-ND</t>
-  </si>
-  <si>
-    <t>CONSMA003.062</t>
-  </si>
-  <si>
-    <t>74AHCT1G08SE-7</t>
-  </si>
-  <si>
-    <t>AD8561ARZ</t>
-  </si>
-  <si>
     <t>LM358DR</t>
   </si>
   <si>
-    <t>C1, C2</t>
-  </si>
-  <si>
-    <t>R1, R4, R6</t>
-  </si>
-  <si>
-    <t>R7, R9</t>
-  </si>
-  <si>
-    <t>0R Jumper</t>
-  </si>
-  <si>
-    <t>Standoffs</t>
-  </si>
-  <si>
-    <t>Spring Connectors</t>
-  </si>
-  <si>
-    <t>H1, H2, H3, H4</t>
-  </si>
-  <si>
-    <t>J3</t>
-  </si>
-  <si>
-    <t>Spring Connector Pads</t>
-  </si>
-  <si>
     <t>Inverting Amplification of Signal</t>
   </si>
   <si>
-    <t>Analog to Digital Signal</t>
-  </si>
-  <si>
-    <t>AND Gate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Analog Input </t>
-  </si>
-  <si>
-    <t>93505A101</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>1212-1573-ND</t>
-  </si>
-  <si>
-    <t>811-SS-004-30-006101</t>
-  </si>
-  <si>
-    <t>811-SS-004-30-006101 - F</t>
-  </si>
-  <si>
-    <t>1212-1573-ND - F</t>
-  </si>
-  <si>
-    <t>CONN SPRING LOAD 4POS SNGL SMD</t>
-  </si>
-  <si>
     <t>10</t>
   </si>
   <si>
-    <t>http://www.digikey.com/product-search/en?keywords=811-SS-004-30-006101</t>
-  </si>
-  <si>
-    <t>http://www.mcmaster.com/#93505a101/=12gwufp</t>
-  </si>
-  <si>
     <t>100</t>
   </si>
   <si>
@@ -209,21 +95,6 @@
     <t>GRM155R71H103KA88D</t>
   </si>
   <si>
-    <t>http://www.digikey.com/product-detail/en/samsung-electro-mechanics-america-inc/RC1005J000CS/1276-3480-1-ND/3903583</t>
-  </si>
-  <si>
-    <t>1276-3480-1-ND</t>
-  </si>
-  <si>
-    <t>RC1005J000CS</t>
-  </si>
-  <si>
-    <t>RES SMD 0.0OHM JUMPER 1/16W 0402</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
     <t>RES SMD 1K OHM 5% 1/16W 0402</t>
   </si>
   <si>
@@ -248,30 +119,9 @@
     <t>http://www.digikey.com/product-detail/en/te-connectivity-amp-connectors/CRG0402J1K0/A106129CT-ND/3477786</t>
   </si>
   <si>
-    <t>3/16" Hex Size, 1/4" Length, 4-40 Thread Size</t>
-  </si>
-  <si>
     <t>Potentiometer</t>
   </si>
   <si>
-    <t>TRIMMER 10K OHM 0.25W SMD</t>
-  </si>
-  <si>
-    <t>3314Z-1-103E</t>
-  </si>
-  <si>
-    <t>3314Z-103ECT-ND</t>
-  </si>
-  <si>
-    <t>http://www.digikey.com/product-detail/en/bourns-inc/3314Z-1-103E/3314Z-103ECT-ND/253541</t>
-  </si>
-  <si>
-    <t>R8</t>
-  </si>
-  <si>
-    <t>R2, R3, R5</t>
-  </si>
-  <si>
     <t>http://www.digikey.com/product-search/en?keywords=160-1475-1-ND</t>
   </si>
   <si>
@@ -287,15 +137,9 @@
     <t>160-1475-1-ND</t>
   </si>
   <si>
-    <t>D1</t>
-  </si>
-  <si>
     <t>http://www.digikey.com/product-detail/en/yageo/RC0402JR-07150RL/311-150JRCT-ND/729371</t>
   </si>
   <si>
-    <t>R10</t>
-  </si>
-  <si>
     <t>Resistor for LED</t>
   </si>
   <si>
@@ -306,6 +150,117 @@
   </si>
   <si>
     <t>311-150JRCT-ND</t>
+  </si>
+  <si>
+    <t>http://www.digikey.com/product-detail/en/murata-electronics-north-america/PVZ3A103C01B00/490-7102-ND/2603871</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>http://www.digikey.com/product-detail/en/maxim-integrated/MAX9013ESA-/MAX9013ESA--ND/1495420</t>
+  </si>
+  <si>
+    <t>Comparator</t>
+  </si>
+  <si>
+    <t>SMA connectors</t>
+  </si>
+  <si>
+    <t>AND gate</t>
+  </si>
+  <si>
+    <t>Headers</t>
+  </si>
+  <si>
+    <t>J5,6,7,8</t>
+  </si>
+  <si>
+    <t>R8,18.28.38</t>
+  </si>
+  <si>
+    <t>J1,2,3,4</t>
+  </si>
+  <si>
+    <t>Resistor</t>
+  </si>
+  <si>
+    <t>C1-8</t>
+  </si>
+  <si>
+    <t>U2,4,6,8</t>
+  </si>
+  <si>
+    <t>D1-5</t>
+  </si>
+  <si>
+    <t>U1,3,5,7</t>
+  </si>
+  <si>
+    <t>U9</t>
+  </si>
+  <si>
+    <t>490-7102-ND</t>
+  </si>
+  <si>
+    <t>PVZ3A103C01B00</t>
+  </si>
+  <si>
+    <t>TRIMMER 10K OHM 0.1W SMD</t>
+  </si>
+  <si>
+    <t>http://www.digikey.com/product-detail/en/linx-technologies-inc/CONSMA001-SMD-G/CONSMA001-SMD-G-ND/4496569</t>
+  </si>
+  <si>
+    <t>CD4082BM96</t>
+  </si>
+  <si>
+    <t>296-31523-1-ND</t>
+  </si>
+  <si>
+    <t>CONSMA001-SMD-G</t>
+  </si>
+  <si>
+    <t>CONSMA001-SMD-G-ND</t>
+  </si>
+  <si>
+    <t>MAX9013ESA+</t>
+  </si>
+  <si>
+    <t>MAX9013ESA+-ND</t>
+  </si>
+  <si>
+    <t>IC COMP LOW PWR SNGL TTL 8SOIC</t>
+  </si>
+  <si>
+    <t>CONN SMA JACK STR 50OHM SMD</t>
+  </si>
+  <si>
+    <t>IC GATE AND 2CH 4-INP 14-SOIC</t>
+  </si>
+  <si>
+    <t>http://www.digikey.com/product-detail/en/harwin-inc/M20-9990346/952-2264-ND/3728228</t>
+  </si>
+  <si>
+    <t>3 Positions Header, Unshrouded, Breakaway Connector 0.100" (2.54mm) Through Hole Tin</t>
+  </si>
+  <si>
+    <t>M20-9990346</t>
+  </si>
+  <si>
+    <t>952-2264-ND</t>
+  </si>
+  <si>
+    <t>R2,6,7,12,16,17,22,26,27,32,36,37</t>
+  </si>
+  <si>
+    <t>R1,3,5,11,13,15,21,23,25,31,33,35</t>
+  </si>
+  <si>
+    <t>R4,14,24,34,41</t>
+  </si>
+  <si>
+    <t>http://www.digikey.com/product-detail/en/texas-instruments/CD4082BM96/296-31523-1-ND/3505803</t>
   </si>
 </sst>
 </file>
@@ -361,9 +316,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -377,11 +331,22 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF999999"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF999999"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -391,7 +356,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -409,7 +374,13 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -692,10 +663,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J25"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -736,7 +707,7 @@
         <v>1</v>
       </c>
       <c r="H1" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I1" s="11" t="s">
         <v>2</v>
@@ -747,487 +718,386 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>57</v>
+        <v>19</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>59</v>
+        <v>21</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>58</v>
+        <v>20</v>
       </c>
       <c r="F2" s="13">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G2" s="9">
         <v>4.4000000000000003E-3</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="I2" s="11">
-        <v>8.8000000000000005E-3</v>
+        <f>G2*F2</f>
+        <v>3.5200000000000002E-2</v>
       </c>
       <c r="J2" s="14" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B3" s="7"/>
+        <v>74</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="C3" s="7" t="s">
-        <v>65</v>
+        <v>22</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>67</v>
+        <v>24</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>66</v>
+        <v>23</v>
       </c>
       <c r="F3" s="13">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="G3" s="9">
         <v>3.7000000000000002E-3</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="I3" s="11">
-        <v>1.11E-2</v>
+        <f t="shared" ref="I3:I14" si="0">G3*F3</f>
+        <v>4.4400000000000002E-2</v>
       </c>
       <c r="J3" s="14" t="s">
-        <v>72</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>33</v>
+        <v>75</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>62</v>
+        <v>26</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="F4" s="8">
-        <v>2</v>
+        <v>25</v>
+      </c>
+      <c r="F4" s="13">
+        <v>12</v>
       </c>
       <c r="G4" s="9">
-        <v>4.0000000000000001E-3</v>
+        <v>3.7000000000000002E-3</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="I4" s="11">
-        <v>8.0000000000000002E-3</v>
+        <f t="shared" si="0"/>
+        <v>4.4400000000000002E-2</v>
       </c>
       <c r="J4" s="14" t="s">
-        <v>60</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="B5" s="7"/>
+        <v>53</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="C5" s="7" t="s">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>69</v>
+        <v>13</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>68</v>
+        <v>12</v>
       </c>
       <c r="F5" s="13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G5" s="9">
-        <v>3.7000000000000002E-3</v>
+        <v>0.35199999999999998</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>54</v>
+        <v>15</v>
       </c>
       <c r="I5" s="11">
-        <v>1.11E-2</v>
+        <f t="shared" si="0"/>
+        <v>1.4079999999999999</v>
       </c>
       <c r="J5" s="14" t="s">
-        <v>71</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="F6" s="13">
-        <v>1</v>
+        <v>34</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" s="8">
+        <v>5</v>
       </c>
       <c r="G6" s="9">
-        <v>3.37</v>
+        <v>0.14399999999999999</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="I6" s="11">
-        <v>3.37</v>
+        <f t="shared" si="0"/>
+        <v>0.72</v>
       </c>
       <c r="J6" s="14" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>9</v>
+        <v>76</v>
       </c>
       <c r="B7" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" s="8">
+        <v>5</v>
+      </c>
+      <c r="G7" s="9">
+        <v>4.7000000000000002E-3</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="I7" s="11">
+        <f t="shared" si="0"/>
+        <v>2.35E-2</v>
+      </c>
+      <c r="J7" s="14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="F8" s="2">
+        <v>4</v>
+      </c>
+      <c r="G8" s="3">
+        <v>0.14080000000000001</v>
+      </c>
+      <c r="H8" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="I8" s="11">
+        <f t="shared" si="0"/>
+        <v>0.56320000000000003</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="F9" s="2">
+        <v>4</v>
+      </c>
+      <c r="G9" s="3">
+        <v>2.8492000000000002</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="I9" s="11">
+        <f t="shared" si="0"/>
+        <v>11.396800000000001</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="F10" s="2">
+        <v>4</v>
+      </c>
+      <c r="G10" s="3">
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="H10" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F7" s="13">
+      <c r="I10" s="11">
+        <f t="shared" si="0"/>
+        <v>8.7200000000000006</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="F11" s="2">
         <v>1</v>
       </c>
-      <c r="G7" s="9">
-        <v>0.20499999999999999</v>
-      </c>
-      <c r="H7" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="I7" s="11">
-        <v>0.20499999999999999</v>
-      </c>
-      <c r="J7" s="14" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F8" s="13">
-        <v>1</v>
-      </c>
-      <c r="G8" s="9">
-        <v>4.4800000000000004</v>
-      </c>
-      <c r="H8" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="I8" s="11">
-        <v>4.4800000000000004</v>
-      </c>
-      <c r="J8" s="14" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="F9" s="13">
-        <v>1</v>
-      </c>
-      <c r="G9" s="9">
-        <v>0.35199999999999998</v>
-      </c>
-      <c r="H9" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="I9" s="11">
-        <v>0.35199999999999998</v>
-      </c>
-      <c r="J9" s="14" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C10" s="12" t="s">
+      <c r="G11" s="3">
+        <v>0.34799999999999998</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I11" s="11">
+        <f t="shared" si="0"/>
+        <v>0.34799999999999998</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="E12" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="D10" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="F10" s="8">
+      <c r="F12" s="2">
         <v>4</v>
       </c>
-      <c r="G10" s="9">
-        <v>0.36</v>
-      </c>
-      <c r="H10" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="I10" s="11">
-        <v>1.44</v>
-      </c>
-      <c r="J10" s="14" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="F11" s="13">
-        <v>1</v>
-      </c>
-      <c r="G11" s="7">
-        <v>1.835</v>
-      </c>
-      <c r="H11" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="I11" s="11">
-        <v>1.835</v>
-      </c>
-      <c r="J11" s="14" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="F12" s="8">
-        <v>1</v>
-      </c>
-      <c r="G12" s="9">
-        <v>0</v>
-      </c>
-      <c r="H12" s="10" t="s">
-        <v>51</v>
+      <c r="G12" s="3">
+        <v>7.3999999999999996E-2</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="I12" s="11">
-        <v>0</v>
-      </c>
-      <c r="J12" s="14" t="s">
-        <v>52</v>
+        <f t="shared" si="0"/>
+        <v>0.29599999999999999</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="F13" s="8">
-        <v>1</v>
-      </c>
-      <c r="G13" s="9">
-        <v>2.0059999999999998</v>
-      </c>
-      <c r="H13" s="10" t="s">
-        <v>51</v>
-      </c>
       <c r="I13" s="11">
-        <v>2.0059999999999998</v>
-      </c>
-      <c r="J13" s="15" t="s">
-        <v>78</v>
+        <f>SUM(I2:I12)</f>
+        <v>23.599499999999999</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="F14" s="8">
-        <v>1</v>
-      </c>
-      <c r="G14" s="9">
-        <v>0.19500000000000001</v>
-      </c>
-      <c r="H14" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="I14" s="11">
-        <v>0.19500000000000001</v>
-      </c>
-      <c r="J14" s="15" t="s">
-        <v>81</v>
-      </c>
+      <c r="F14" s="2"/>
+      <c r="I14" s="11"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="F15" s="8">
-        <v>1</v>
-      </c>
-      <c r="G15" s="9">
-        <v>4.7000000000000002E-3</v>
-      </c>
-      <c r="H15" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="I15" s="11">
-        <v>0.47</v>
-      </c>
-      <c r="J15" s="15" t="s">
-        <v>87</v>
-      </c>
+      <c r="F15" s="2"/>
+      <c r="I15" s="5"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F16" s="2"/>
-      <c r="I16" s="5">
-        <f>SUM(I2:I15)</f>
-        <v>14.392000000000001</v>
-      </c>
-    </row>
-    <row r="17" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F17" s="2"/>
+      <c r="I16" s="5"/>
+    </row>
+    <row r="17" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I17" s="5"/>
-    </row>
-    <row r="18" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F18" s="2"/>
-      <c r="I18" s="5"/>
-    </row>
-    <row r="19" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F19" s="2"/>
-      <c r="I19" s="5"/>
-    </row>
-    <row r="20" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F20" s="2"/>
-      <c r="I20" s="5"/>
-    </row>
-    <row r="21" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="I21" s="5"/>
-    </row>
-    <row r="22" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F22" s="2"/>
-      <c r="I22" s="5"/>
-    </row>
-    <row r="23" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F23" s="2"/>
-      <c r="I23" s="5"/>
-    </row>
-    <row r="24" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="I24" s="5"/>
-    </row>
-    <row r="25" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="I25" s="5"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:J1">
@@ -1236,22 +1106,14 @@
     </sortState>
   </autoFilter>
   <hyperlinks>
-    <hyperlink ref="J7" r:id="rId1"/>
-    <hyperlink ref="J8" r:id="rId2"/>
-    <hyperlink ref="J9" r:id="rId3"/>
-    <hyperlink ref="J6" r:id="rId4"/>
-    <hyperlink ref="J11" r:id="rId5"/>
-    <hyperlink ref="J10" r:id="rId6" location="93505a101/=12gwufp"/>
-    <hyperlink ref="J2" r:id="rId7"/>
-    <hyperlink ref="J4" r:id="rId8"/>
-    <hyperlink ref="J5" r:id="rId9"/>
-    <hyperlink ref="J3" r:id="rId10"/>
-    <hyperlink ref="J12" r:id="rId11"/>
-    <hyperlink ref="J13" r:id="rId12"/>
-    <hyperlink ref="J14" r:id="rId13"/>
-    <hyperlink ref="J15" r:id="rId14"/>
+    <hyperlink ref="J5" r:id="rId1"/>
+    <hyperlink ref="J2" r:id="rId2"/>
+    <hyperlink ref="J4" r:id="rId3"/>
+    <hyperlink ref="J3" r:id="rId4"/>
+    <hyperlink ref="J6" r:id="rId5"/>
+    <hyperlink ref="J7" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId15"/>
+  <pageSetup orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>
--- a/pcb/bom.xlsx
+++ b/pcb/bom.xlsx
@@ -155,9 +155,6 @@
     <t>http://www.digikey.com/product-detail/en/murata-electronics-north-america/PVZ3A103C01B00/490-7102-ND/2603871</t>
   </si>
   <si>
-    <t>25</t>
-  </si>
-  <si>
     <t>http://www.digikey.com/product-detail/en/maxim-integrated/MAX9013ESA-/MAX9013ESA--ND/1495420</t>
   </si>
   <si>
@@ -261,6 +258,9 @@
   </si>
   <si>
     <t>http://www.digikey.com/product-detail/en/texas-instruments/CD4082BM96/296-31523-1-ND/3505803</t>
+  </si>
+  <si>
+    <t>1</t>
   </si>
 </sst>
 </file>
@@ -356,7 +356,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -381,6 +381,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -666,7 +667,7 @@
   <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -718,7 +719,7 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>18</v>
@@ -751,10 +752,10 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>22</v>
@@ -775,7 +776,7 @@
         <v>16</v>
       </c>
       <c r="I3" s="11">
-        <f t="shared" ref="I3:I14" si="0">G3*F3</f>
+        <f t="shared" ref="I3:I12" si="0">G3*F3</f>
         <v>4.4400000000000002E-2</v>
       </c>
       <c r="J3" s="14" t="s">
@@ -784,10 +785,10 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>27</v>
@@ -817,7 +818,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>14</v>
@@ -850,7 +851,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>32</v>
@@ -868,14 +869,14 @@
         <v>5</v>
       </c>
       <c r="G6" s="9">
-        <v>0.14399999999999999</v>
+        <v>0.19500000000000001</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="I6" s="11">
         <f t="shared" si="0"/>
-        <v>0.72</v>
+        <v>0.97500000000000009</v>
       </c>
       <c r="J6" s="14" t="s">
         <v>31</v>
@@ -883,7 +884,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>37</v>
@@ -916,85 +917,85 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F8" s="2">
         <v>4</v>
       </c>
       <c r="G8" s="3">
-        <v>0.14080000000000001</v>
+        <v>0.157</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="I8" s="11">
         <f t="shared" si="0"/>
-        <v>0.56320000000000003</v>
-      </c>
-      <c r="J8" s="1" t="s">
+        <v>0.628</v>
+      </c>
+      <c r="J8" s="18" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D9" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="E9" s="15" t="s">
         <v>63</v>
-      </c>
-      <c r="E9" s="15" t="s">
-        <v>64</v>
       </c>
       <c r="F9" s="2">
         <v>4</v>
       </c>
       <c r="G9" s="3">
-        <v>2.8492000000000002</v>
+        <v>3.15</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" si="0"/>
-        <v>11.396800000000001</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>60</v>
+        <v>12.6</v>
+      </c>
+      <c r="J9" s="18" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E10" s="16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F10" s="2">
         <v>4</v>
@@ -1009,58 +1010,58 @@
         <f t="shared" si="0"/>
         <v>8.7200000000000006</v>
       </c>
-      <c r="J10" s="1" t="s">
-        <v>43</v>
+      <c r="J10" s="18" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D11" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="E11" s="15" t="s">
         <v>61</v>
-      </c>
-      <c r="E11" s="15" t="s">
-        <v>62</v>
       </c>
       <c r="F11" s="2">
         <v>1</v>
       </c>
       <c r="G11" s="3">
-        <v>0.34799999999999998</v>
+        <v>0.41</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>15</v>
+        <v>77</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" si="0"/>
-        <v>0.34799999999999998</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>77</v>
+        <v>0.41</v>
+      </c>
+      <c r="J11" s="18" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C12" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="D12" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="D12" s="16" t="s">
+      <c r="E12" s="15" t="s">
         <v>72</v>
-      </c>
-      <c r="E12" s="15" t="s">
-        <v>73</v>
       </c>
       <c r="F12" s="2">
         <v>4</v>
@@ -1075,14 +1076,14 @@
         <f t="shared" si="0"/>
         <v>0.29599999999999999</v>
       </c>
-      <c r="J12" s="1" t="s">
-        <v>70</v>
+      <c r="J12" s="18" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="I13" s="11">
         <f>SUM(I2:I12)</f>
-        <v>23.599499999999999</v>
+        <v>25.1845</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -1112,8 +1113,13 @@
     <hyperlink ref="J3" r:id="rId4"/>
     <hyperlink ref="J6" r:id="rId5"/>
     <hyperlink ref="J7" r:id="rId6"/>
+    <hyperlink ref="J12" r:id="rId7"/>
+    <hyperlink ref="J8" r:id="rId8"/>
+    <hyperlink ref="J9" r:id="rId9"/>
+    <hyperlink ref="J10" r:id="rId10"/>
+    <hyperlink ref="J11" r:id="rId11"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId7"/>
+  <pageSetup orientation="portrait" r:id="rId12"/>
 </worksheet>
 </file>
--- a/pcb/bom.xlsx
+++ b/pcb/bom.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="89">
   <si>
     <t>QTY</t>
   </si>
@@ -59,21 +59,6 @@
     <t>Price Point</t>
   </si>
   <si>
-    <t>IC OPAMP GP 700KHZ 8SOIC</t>
-  </si>
-  <si>
-    <t>http://www.digikey.com/product-detail/en/texas-instruments/LM358DR/296-1014-1-ND/404838</t>
-  </si>
-  <si>
-    <t>296-1014-1-ND</t>
-  </si>
-  <si>
-    <t>LM358DR</t>
-  </si>
-  <si>
-    <t>Inverting Amplification of Signal</t>
-  </si>
-  <si>
     <t>10</t>
   </si>
   <si>
@@ -155,9 +140,6 @@
     <t>http://www.digikey.com/product-detail/en/murata-electronics-north-america/PVZ3A103C01B00/490-7102-ND/2603871</t>
   </si>
   <si>
-    <t>http://www.digikey.com/product-detail/en/maxim-integrated/MAX9013ESA-/MAX9013ESA--ND/1495420</t>
-  </si>
-  <si>
     <t>Comparator</t>
   </si>
   <si>
@@ -170,30 +152,15 @@
     <t>Headers</t>
   </si>
   <si>
-    <t>J5,6,7,8</t>
-  </si>
-  <si>
-    <t>R8,18.28.38</t>
-  </si>
-  <si>
     <t>J1,2,3,4</t>
   </si>
   <si>
     <t>Resistor</t>
   </si>
   <si>
-    <t>C1-8</t>
-  </si>
-  <si>
-    <t>U2,4,6,8</t>
-  </si>
-  <si>
     <t>D1-5</t>
   </si>
   <si>
-    <t>U1,3,5,7</t>
-  </si>
-  <si>
     <t>U9</t>
   </si>
   <si>
@@ -221,15 +188,6 @@
     <t>CONSMA001-SMD-G-ND</t>
   </si>
   <si>
-    <t>MAX9013ESA+</t>
-  </si>
-  <si>
-    <t>MAX9013ESA+-ND</t>
-  </si>
-  <si>
-    <t>IC COMP LOW PWR SNGL TTL 8SOIC</t>
-  </si>
-  <si>
     <t>CONN SMA JACK STR 50OHM SMD</t>
   </si>
   <si>
@@ -248,19 +206,94 @@
     <t>952-2264-ND</t>
   </si>
   <si>
-    <t>R2,6,7,12,16,17,22,26,27,32,36,37</t>
-  </si>
-  <si>
-    <t>R1,3,5,11,13,15,21,23,25,31,33,35</t>
-  </si>
-  <si>
-    <t>R4,14,24,34,41</t>
-  </si>
-  <si>
     <t>http://www.digikey.com/product-detail/en/texas-instruments/CD4082BM96/296-31523-1-ND/3505803</t>
   </si>
   <si>
     <t>1</t>
+  </si>
+  <si>
+    <t>C1-4</t>
+  </si>
+  <si>
+    <t>S1-4</t>
+  </si>
+  <si>
+    <t>Switch</t>
+  </si>
+  <si>
+    <t>http://www.digikey.com/product-detail/en/c-k-components/JS202011SCQN/401-2002-1-ND/1640098</t>
+  </si>
+  <si>
+    <t>SWITCH SLIDE DPDT 300MA 6V</t>
+  </si>
+  <si>
+    <t>JS202011SCQN</t>
+  </si>
+  <si>
+    <t>401-2002-1-ND</t>
+  </si>
+  <si>
+    <t>http://www.digikey.com/product-detail/en/linear-technology/LT1809CS6-TRMPBF/LT1809CS6-TRMPBFCT-ND/891475</t>
+  </si>
+  <si>
+    <t>LT1809CS6#TRMPBF</t>
+  </si>
+  <si>
+    <t>LT1809CS6#TRMPBFCT-ND</t>
+  </si>
+  <si>
+    <t>IC OPAMP GP 180MHZ RRO TSOT23-6</t>
+  </si>
+  <si>
+    <t>OpAmp</t>
+  </si>
+  <si>
+    <t>A109743CT-ND</t>
+  </si>
+  <si>
+    <t>RLP73K1ER51JTD</t>
+  </si>
+  <si>
+    <t>RES SMD 0.51 OHM 5% 1/8W 0402</t>
+  </si>
+  <si>
+    <t>R5,8,13,18</t>
+  </si>
+  <si>
+    <t>J1,4,6,8</t>
+  </si>
+  <si>
+    <t>U1,4,6,8</t>
+  </si>
+  <si>
+    <t>R4,6,11,16</t>
+  </si>
+  <si>
+    <t>R3,7,12,17,25</t>
+  </si>
+  <si>
+    <t>U2,3,5,7</t>
+  </si>
+  <si>
+    <t>R1,10,15,20</t>
+  </si>
+  <si>
+    <t>R2,9,14,19</t>
+  </si>
+  <si>
+    <t>http://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=198213383&amp;uq=635998579766508045</t>
+  </si>
+  <si>
+    <t>LT1719CS8#PBF-ND</t>
+  </si>
+  <si>
+    <t>LT1719CS8#PBF</t>
+  </si>
+  <si>
+    <t>IC COMP R-R I/O SGL 3/5V 8-SOIC</t>
+  </si>
+  <si>
+    <t>http://www.digikey.com/product-detail/en/linear-technology/LT1719CS8-PBF/LT1719CS8-PBF-ND/889675</t>
   </si>
 </sst>
 </file>
@@ -271,7 +304,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.0000_);_(&quot;$&quot;* \(#,##0.0000\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -322,6 +355,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -356,7 +395,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -382,6 +421,10 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -667,7 +710,7 @@
   <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -719,118 +762,118 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="F2" s="13">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G2" s="9">
         <v>4.4000000000000003E-3</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="I2" s="11">
         <f>G2*F2</f>
-        <v>3.5200000000000002E-2</v>
+        <v>1.7600000000000001E-2</v>
       </c>
       <c r="J2" s="14" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="F3" s="13">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="G3" s="9">
         <v>3.7000000000000002E-3</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="I3" s="11">
-        <f t="shared" ref="I3:I12" si="0">G3*F3</f>
-        <v>4.4400000000000002E-2</v>
+        <f t="shared" ref="I3:I14" si="0">G3*F3</f>
+        <v>1.4800000000000001E-2</v>
       </c>
       <c r="J3" s="14" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F4" s="13">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="G4" s="9">
         <v>3.7000000000000002E-3</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="I4" s="11">
         <f t="shared" si="0"/>
-        <v>4.4400000000000002E-2</v>
+        <v>1.4800000000000001E-2</v>
       </c>
       <c r="J4" s="14" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>52</v>
+        <v>81</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>12</v>
+        <v>72</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>70</v>
       </c>
       <c r="F5" s="13">
         <v>4</v>
@@ -839,31 +882,31 @@
         <v>0.35199999999999998</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="I5" s="11">
         <f t="shared" si="0"/>
         <v>1.4079999999999999</v>
       </c>
       <c r="J5" s="14" t="s">
-        <v>11</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F6" s="8">
         <v>5</v>
@@ -872,31 +915,31 @@
         <v>0.19500000000000001</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="I6" s="11">
         <f t="shared" si="0"/>
         <v>0.97500000000000009</v>
       </c>
       <c r="J6" s="14" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F7" s="8">
         <v>5</v>
@@ -905,31 +948,31 @@
         <v>4.7000000000000002E-3</v>
       </c>
       <c r="H7" s="10" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="I7" s="11">
         <f t="shared" si="0"/>
         <v>2.35E-2</v>
       </c>
       <c r="J7" s="14" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>48</v>
+        <v>79</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="F8" s="2">
         <v>4</v>
@@ -938,31 +981,31 @@
         <v>0.157</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="I8" s="11">
         <f t="shared" si="0"/>
         <v>0.628</v>
       </c>
       <c r="J8" s="18" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="F9" s="2">
         <v>4</v>
@@ -971,64 +1014,64 @@
         <v>3.15</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" si="0"/>
         <v>12.6</v>
       </c>
       <c r="J9" s="18" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>54</v>
+        <v>78</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="D10" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="E10" s="16" t="s">
-        <v>64</v>
+        <v>37</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="E10" s="19" t="s">
+        <v>85</v>
       </c>
       <c r="F10" s="2">
         <v>4</v>
       </c>
       <c r="G10" s="3">
-        <v>2.1800000000000002</v>
+        <v>4.0199999999999996</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" si="0"/>
-        <v>8.7200000000000006</v>
+        <v>16.079999999999998</v>
       </c>
       <c r="J10" s="18" t="s">
-        <v>42</v>
+        <v>88</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="F11" s="2">
         <v>1</v>
@@ -1037,31 +1080,31 @@
         <v>0.41</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" si="0"/>
         <v>0.41</v>
       </c>
       <c r="J11" s="18" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>47</v>
+        <v>77</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="F12" s="2">
         <v>4</v>
@@ -1070,29 +1113,88 @@
         <v>7.3999999999999996E-2</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" si="0"/>
         <v>0.29599999999999999</v>
       </c>
       <c r="J12" s="18" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="D13" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="E13" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="F13" s="6">
+        <v>4</v>
+      </c>
+      <c r="G13" s="19">
+        <v>0.441</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>10</v>
+      </c>
       <c r="I13" s="11">
-        <f>SUM(I2:I12)</f>
-        <v>25.1845</v>
+        <f>G13*F13</f>
+        <v>1.764</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F14" s="2"/>
-      <c r="I14" s="11"/>
+      <c r="A14" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="D14" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="E14" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="F14" s="2">
+        <v>4</v>
+      </c>
+      <c r="G14" s="3">
+        <v>9.2899999999999996E-2</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I14" s="11">
+        <f t="shared" si="0"/>
+        <v>0.37159999999999999</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F15" s="2"/>
-      <c r="I15" s="5"/>
+      <c r="I15" s="5">
+        <f>SUM(I2:I14)</f>
+        <v>34.603299999999997</v>
+      </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="I16" s="5"/>
@@ -1107,19 +1209,17 @@
     </sortState>
   </autoFilter>
   <hyperlinks>
-    <hyperlink ref="J5" r:id="rId1"/>
-    <hyperlink ref="J2" r:id="rId2"/>
-    <hyperlink ref="J4" r:id="rId3"/>
-    <hyperlink ref="J3" r:id="rId4"/>
-    <hyperlink ref="J6" r:id="rId5"/>
-    <hyperlink ref="J7" r:id="rId6"/>
-    <hyperlink ref="J12" r:id="rId7"/>
-    <hyperlink ref="J8" r:id="rId8"/>
-    <hyperlink ref="J9" r:id="rId9"/>
-    <hyperlink ref="J10" r:id="rId10"/>
-    <hyperlink ref="J11" r:id="rId11"/>
+    <hyperlink ref="J2" r:id="rId1"/>
+    <hyperlink ref="J4" r:id="rId2"/>
+    <hyperlink ref="J3" r:id="rId3"/>
+    <hyperlink ref="J6" r:id="rId4"/>
+    <hyperlink ref="J7" r:id="rId5"/>
+    <hyperlink ref="J12" r:id="rId6"/>
+    <hyperlink ref="J8" r:id="rId7"/>
+    <hyperlink ref="J9" r:id="rId8"/>
+    <hyperlink ref="J11" r:id="rId9"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId12"/>
+  <pageSetup orientation="portrait" r:id="rId10"/>
 </worksheet>
 </file>
--- a/pcb/bom.xlsx
+++ b/pcb/bom.xlsx
@@ -284,16 +284,16 @@
     <t>http://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=198213383&amp;uq=635998579766508045</t>
   </si>
   <si>
-    <t>LT1719CS8#PBF-ND</t>
-  </si>
-  <si>
-    <t>LT1719CS8#PBF</t>
-  </si>
-  <si>
-    <t>IC COMP R-R I/O SGL 3/5V 8-SOIC</t>
-  </si>
-  <si>
-    <t>http://www.digikey.com/product-detail/en/linear-technology/LT1719CS8-PBF/LT1719CS8-PBF-ND/889675</t>
+    <t>LT1719CS6#TRMPBFCT-ND</t>
+  </si>
+  <si>
+    <t>LT1719CS6#TRMPBF</t>
+  </si>
+  <si>
+    <t>IC COMP R-RINOUT SINGLE SOT23-6</t>
+  </si>
+  <si>
+    <t>http://www.digikey.com/product-detail/en/linear-technology/LT1719CS6-TRMPBF/LT1719CS6-TRMPBFCT-ND/891316</t>
   </si>
 </sst>
 </file>
@@ -709,8 +709,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1044,14 +1044,14 @@
         <v>4</v>
       </c>
       <c r="G10" s="3">
-        <v>4.0199999999999996</v>
+        <v>3.49</v>
       </c>
       <c r="H10" s="4" t="s">
         <v>60</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" si="0"/>
-        <v>16.079999999999998</v>
+        <v>13.96</v>
       </c>
       <c r="J10" s="18" t="s">
         <v>88</v>
@@ -1193,7 +1193,7 @@
       <c r="F15" s="2"/>
       <c r="I15" s="5">
         <f>SUM(I2:I14)</f>
-        <v>34.603299999999997</v>
+        <v>32.4833</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">

--- a/pcb/bom.xlsx
+++ b/pcb/bom.xlsx
@@ -89,18 +89,6 @@
     <t>CRG0402J1K0</t>
   </si>
   <si>
-    <t>A106045CT-ND</t>
-  </si>
-  <si>
-    <t>CRG0402J10K/10</t>
-  </si>
-  <si>
-    <t>RES SMD 10K OHM 5% 1/16W 0402</t>
-  </si>
-  <si>
-    <t>http://www.digikey.com/product-detail/en/te-connectivity-amp-connectors/CRG0402J10K-10/A106045CT-ND/3477682</t>
-  </si>
-  <si>
     <t>http://www.digikey.com/product-detail/en/te-connectivity-amp-connectors/CRG0402J1K0/A106129CT-ND/3477786</t>
   </si>
   <si>
@@ -152,15 +140,9 @@
     <t>Headers</t>
   </si>
   <si>
-    <t>J1,2,3,4</t>
-  </si>
-  <si>
     <t>Resistor</t>
   </si>
   <si>
-    <t>D1-5</t>
-  </si>
-  <si>
     <t>U9</t>
   </si>
   <si>
@@ -212,12 +194,6 @@
     <t>1</t>
   </si>
   <si>
-    <t>C1-4</t>
-  </si>
-  <si>
-    <t>S1-4</t>
-  </si>
-  <si>
     <t>Switch</t>
   </si>
   <si>
@@ -248,42 +224,6 @@
     <t>OpAmp</t>
   </si>
   <si>
-    <t>A109743CT-ND</t>
-  </si>
-  <si>
-    <t>RLP73K1ER51JTD</t>
-  </si>
-  <si>
-    <t>RES SMD 0.51 OHM 5% 1/8W 0402</t>
-  </si>
-  <si>
-    <t>R5,8,13,18</t>
-  </si>
-  <si>
-    <t>J1,4,6,8</t>
-  </si>
-  <si>
-    <t>U1,4,6,8</t>
-  </si>
-  <si>
-    <t>R4,6,11,16</t>
-  </si>
-  <si>
-    <t>R3,7,12,17,25</t>
-  </si>
-  <si>
-    <t>U2,3,5,7</t>
-  </si>
-  <si>
-    <t>R1,10,15,20</t>
-  </si>
-  <si>
-    <t>R2,9,14,19</t>
-  </si>
-  <si>
-    <t>http://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=198213383&amp;uq=635998579766508045</t>
-  </si>
-  <si>
     <t>LT1719CS6#TRMPBFCT-ND</t>
   </si>
   <si>
@@ -294,6 +234,66 @@
   </si>
   <si>
     <t>http://www.digikey.com/product-detail/en/linear-technology/LT1719CS6-TRMPBF/LT1719CS6-TRMPBFCT-ND/891316</t>
+  </si>
+  <si>
+    <t>http://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=198242465&amp;uq=635998706320412749</t>
+  </si>
+  <si>
+    <t>RES SMD 51 OHM 5% 1/10W 0402</t>
+  </si>
+  <si>
+    <t>RC0603JR-0751RL</t>
+  </si>
+  <si>
+    <t>311-51GRCT-ND</t>
+  </si>
+  <si>
+    <t>http://www.digikey.com/product-detail/en/susumu/RG1608P-103-B-T5/RG16P10.0KBCT-ND/1240835</t>
+  </si>
+  <si>
+    <t>RNCF0402BTE10K0CT-ND</t>
+  </si>
+  <si>
+    <t>RNCF0402BTE10K0</t>
+  </si>
+  <si>
+    <t>RES SMD 10K OHM 0.1% 1/16W 0402</t>
+  </si>
+  <si>
+    <t>C2</t>
+  </si>
+  <si>
+    <t>R9</t>
+  </si>
+  <si>
+    <t>R10</t>
+  </si>
+  <si>
+    <t>U3</t>
+  </si>
+  <si>
+    <t>R6</t>
+  </si>
+  <si>
+    <t>J3</t>
+  </si>
+  <si>
+    <t>U4</t>
+  </si>
+  <si>
+    <t>R7,25</t>
+  </si>
+  <si>
+    <t>D2,5</t>
+  </si>
+  <si>
+    <t>J4</t>
+  </si>
+  <si>
+    <t>S2</t>
+  </si>
+  <si>
+    <t>R8</t>
   </si>
 </sst>
 </file>
@@ -709,8 +709,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -762,7 +762,7 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>13</v>
@@ -795,10 +795,10 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>17</v>
@@ -823,57 +823,57 @@
         <v>1.4800000000000001E-2</v>
       </c>
       <c r="J3" s="14" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>20</v>
+        <v>37</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="E4" s="19" t="s">
+        <v>74</v>
       </c>
       <c r="F4" s="13">
         <v>4</v>
       </c>
       <c r="G4" s="9">
-        <v>3.7000000000000002E-3</v>
+        <v>0.31900000000000001</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I4" s="11">
         <f t="shared" si="0"/>
-        <v>1.4800000000000001E-2</v>
+        <v>1.276</v>
       </c>
       <c r="J4" s="14" t="s">
-        <v>23</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="E5" s="19" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="F5" s="13">
         <v>4</v>
@@ -888,25 +888,25 @@
         <f t="shared" si="0"/>
         <v>1.4079999999999999</v>
       </c>
-      <c r="J5" s="14" t="s">
-        <v>68</v>
+      <c r="J5" s="18" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>43</v>
+        <v>85</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F6" s="8">
         <v>5</v>
@@ -922,24 +922,24 @@
         <v>0.97500000000000009</v>
       </c>
       <c r="J6" s="14" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F7" s="8">
         <v>5</v>
@@ -955,24 +955,24 @@
         <v>2.35E-2</v>
       </c>
       <c r="J7" s="14" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="F8" s="2">
         <v>4</v>
@@ -988,24 +988,24 @@
         <v>0.628</v>
       </c>
       <c r="J8" s="18" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F9" s="2">
         <v>4</v>
@@ -1014,31 +1014,31 @@
         <v>3.15</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" si="0"/>
         <v>12.6</v>
       </c>
       <c r="J9" s="18" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>87</v>
+        <v>67</v>
       </c>
       <c r="D10" s="20" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="E10" s="19" t="s">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="F10" s="2">
         <v>4</v>
@@ -1047,31 +1047,31 @@
         <v>3.49</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" si="0"/>
         <v>13.96</v>
       </c>
       <c r="J10" s="18" t="s">
-        <v>88</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" s="15" t="s">
         <v>44</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C11" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="D11" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="E11" s="15" t="s">
-        <v>50</v>
       </c>
       <c r="F11" s="2">
         <v>1</v>
@@ -1080,31 +1080,31 @@
         <v>0.41</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" si="0"/>
         <v>0.41</v>
       </c>
       <c r="J11" s="18" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="F12" s="2">
         <v>4</v>
@@ -1120,24 +1120,24 @@
         <v>0.29599999999999999</v>
       </c>
       <c r="J12" s="18" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>62</v>
+        <v>87</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="D13" s="20" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="E13" s="19" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="F13" s="6">
         <v>4</v>
@@ -1153,47 +1153,47 @@
         <v>1.764</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D14" s="20" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E14" s="19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F14" s="2">
         <v>4</v>
       </c>
       <c r="G14" s="3">
-        <v>9.2899999999999996E-2</v>
+        <v>4.4000000000000003E-3</v>
       </c>
       <c r="H14" s="4" t="s">
         <v>11</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" si="0"/>
-        <v>0.37159999999999999</v>
+        <v>1.7600000000000001E-2</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F15" s="2"/>
       <c r="I15" s="5">
         <f>SUM(I2:I14)</f>
-        <v>32.4833</v>
+        <v>33.390500000000003</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -1210,16 +1210,17 @@
   </autoFilter>
   <hyperlinks>
     <hyperlink ref="J2" r:id="rId1"/>
-    <hyperlink ref="J4" r:id="rId2"/>
-    <hyperlink ref="J3" r:id="rId3"/>
-    <hyperlink ref="J6" r:id="rId4"/>
-    <hyperlink ref="J7" r:id="rId5"/>
-    <hyperlink ref="J12" r:id="rId6"/>
-    <hyperlink ref="J8" r:id="rId7"/>
-    <hyperlink ref="J9" r:id="rId8"/>
-    <hyperlink ref="J11" r:id="rId9"/>
+    <hyperlink ref="J3" r:id="rId2"/>
+    <hyperlink ref="J6" r:id="rId3"/>
+    <hyperlink ref="J7" r:id="rId4"/>
+    <hyperlink ref="J12" r:id="rId5"/>
+    <hyperlink ref="J8" r:id="rId6"/>
+    <hyperlink ref="J9" r:id="rId7"/>
+    <hyperlink ref="J11" r:id="rId8"/>
+    <hyperlink ref="J5" r:id="rId9"/>
+    <hyperlink ref="J10" r:id="rId10"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId10"/>
+  <pageSetup orientation="portrait" r:id="rId11"/>
 </worksheet>
 </file>
--- a/pcb/bom.xlsx
+++ b/pcb/bom.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrew\Documents\Projects\coincidenceCounter\pcb\logic\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrew\Documents\Projects\CoincidenceCounter\dynodePiShield\coincidenceCounter\pcb\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -17,7 +17,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$J$1</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="58">
   <si>
     <t>QTY</t>
   </si>
@@ -62,9 +62,6 @@
     <t>Price Point</t>
   </si>
   <si>
-    <t>J2</t>
-  </si>
-  <si>
     <t>J1</t>
   </si>
   <si>
@@ -74,156 +71,30 @@
     <t>U3</t>
   </si>
   <si>
-    <t>IC GATE AND 1CH 2-INP SOT-353</t>
-  </si>
-  <si>
-    <t>IC OPAMP GP 700KHZ 8SOIC</t>
-  </si>
-  <si>
-    <t>http://www.digikey.com/product-detail/en/texas-instruments/LM358DR/296-1014-1-ND/404838</t>
-  </si>
-  <si>
-    <t>http://www.digikey.com/product-detail/en/diodes-incorporated/74AHCT1G08SE-7/74AHCT1G08SE-7DICT-ND/2712017</t>
-  </si>
-  <si>
-    <t>http://www.digikey.com/product-detail/en/analog-devices-inc/AD8561ARZ/AD8561ARZ-ND/1016801</t>
-  </si>
-  <si>
-    <t>IC COMPARATOR SNGL 7NS 8-SOIC</t>
-  </si>
-  <si>
-    <t>http://www.digikey.com/product-detail/en/linx-technologies-inc/CONSMA003.062/CONSMA003.062-ND/1577208</t>
-  </si>
-  <si>
     <t>CONN SMA JACK 50 OHM EDGE MNT</t>
   </si>
   <si>
     <t>1</t>
   </si>
   <si>
-    <t>296-1014-1-ND</t>
-  </si>
-  <si>
-    <t>AD8561ARZ-ND</t>
-  </si>
-  <si>
-    <t>74AHCT1G08SE-7DICT-ND</t>
-  </si>
-  <si>
     <t>CONSMA003.062</t>
   </si>
   <si>
-    <t>74AHCT1G08SE-7</t>
-  </si>
-  <si>
-    <t>AD8561ARZ</t>
-  </si>
-  <si>
-    <t>LM358DR</t>
-  </si>
-  <si>
-    <t>C1, C2</t>
-  </si>
-  <si>
-    <t>R1, R4, R6</t>
-  </si>
-  <si>
-    <t>R7, R9</t>
-  </si>
-  <si>
-    <t>0R Jumper</t>
-  </si>
-  <si>
-    <t>Standoffs</t>
-  </si>
-  <si>
-    <t>Spring Connectors</t>
-  </si>
-  <si>
-    <t>H1, H2, H3, H4</t>
-  </si>
-  <si>
-    <t>J3</t>
-  </si>
-  <si>
-    <t>Spring Connector Pads</t>
-  </si>
-  <si>
     <t>Inverting Amplification of Signal</t>
   </si>
   <si>
     <t>Analog to Digital Signal</t>
   </si>
   <si>
-    <t>AND Gate</t>
-  </si>
-  <si>
     <t xml:space="preserve">Analog Input </t>
   </si>
   <si>
-    <t>93505A101</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>1212-1573-ND</t>
-  </si>
-  <si>
-    <t>811-SS-004-30-006101</t>
-  </si>
-  <si>
-    <t>811-SS-004-30-006101 - F</t>
-  </si>
-  <si>
-    <t>1212-1573-ND - F</t>
-  </si>
-  <si>
-    <t>CONN SPRING LOAD 4POS SNGL SMD</t>
-  </si>
-  <si>
     <t>10</t>
   </si>
   <si>
-    <t>http://www.digikey.com/product-search/en?keywords=811-SS-004-30-006101</t>
-  </si>
-  <si>
-    <t>http://www.mcmaster.com/#93505a101/=12gwufp</t>
-  </si>
-  <si>
     <t>100</t>
   </si>
   <si>
-    <t>http://www.digikey.com/product-detail/en/murata-electronics-north-america/GRM155R71H103KA88D/490-4516-1-ND/1033275</t>
-  </si>
-  <si>
-    <t>DC Offset</t>
-  </si>
-  <si>
-    <t>10000pF ±10% 50V X7R Ceramic Capacitor -55°C ~ 125°C Surface Mount, MLCC 0402 (1005 Metric) 0.039" L x 0.020" W (1.00mm x 0.50mm)</t>
-  </si>
-  <si>
-    <t>490-4516-1-ND</t>
-  </si>
-  <si>
-    <t>GRM155R71H103KA88D</t>
-  </si>
-  <si>
-    <t>http://www.digikey.com/product-detail/en/samsung-electro-mechanics-america-inc/RC1005J000CS/1276-3480-1-ND/3903583</t>
-  </si>
-  <si>
-    <t>1276-3480-1-ND</t>
-  </si>
-  <si>
-    <t>RC1005J000CS</t>
-  </si>
-  <si>
-    <t>RES SMD 0.0OHM JUMPER 1/16W 0402</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
     <t>RES SMD 1K OHM 5% 1/16W 0402</t>
   </si>
   <si>
@@ -233,79 +104,103 @@
     <t>CRG0402J1K0</t>
   </si>
   <si>
-    <t>A106045CT-ND</t>
-  </si>
-  <si>
-    <t>CRG0402J10K/10</t>
-  </si>
-  <si>
-    <t>RES SMD 10K OHM 5% 1/16W 0402</t>
-  </si>
-  <si>
-    <t>http://www.digikey.com/product-detail/en/te-connectivity-amp-connectors/CRG0402J10K-10/A106045CT-ND/3477682</t>
-  </si>
-  <si>
     <t>http://www.digikey.com/product-detail/en/te-connectivity-amp-connectors/CRG0402J1K0/A106129CT-ND/3477786</t>
   </si>
   <si>
-    <t>3/16" Hex Size, 1/4" Length, 4-40 Thread Size</t>
-  </si>
-  <si>
     <t>Potentiometer</t>
   </si>
   <si>
-    <t>TRIMMER 10K OHM 0.25W SMD</t>
-  </si>
-  <si>
-    <t>3314Z-1-103E</t>
-  </si>
-  <si>
-    <t>3314Z-103ECT-ND</t>
-  </si>
-  <si>
-    <t>http://www.digikey.com/product-detail/en/bourns-inc/3314Z-1-103E/3314Z-103ECT-ND/253541</t>
-  </si>
-  <si>
     <t>R8</t>
   </si>
   <si>
-    <t>R2, R3, R5</t>
-  </si>
-  <si>
-    <t>http://www.digikey.com/product-search/en?keywords=160-1475-1-ND</t>
-  </si>
-  <si>
-    <t>LED</t>
-  </si>
-  <si>
-    <t>LED GREEN CLEAR 0603 R/A SMD</t>
-  </si>
-  <si>
-    <t>LTST-S270GKT</t>
-  </si>
-  <si>
-    <t>160-1475-1-ND</t>
-  </si>
-  <si>
-    <t>D1</t>
-  </si>
-  <si>
-    <t>http://www.digikey.com/product-detail/en/yageo/RC0402JR-07150RL/311-150JRCT-ND/729371</t>
-  </si>
-  <si>
     <t>R10</t>
   </si>
   <si>
-    <t>Resistor for LED</t>
-  </si>
-  <si>
-    <t>RES SMD 150 OHM 5% 1/16W 0402</t>
-  </si>
-  <si>
-    <t>RC0402JR-07150RL</t>
-  </si>
-  <si>
-    <t>311-150JRCT-ND</t>
+    <t>R9</t>
+  </si>
+  <si>
+    <t>NAND Gate</t>
+  </si>
+  <si>
+    <t>568-1379-1-ND</t>
+  </si>
+  <si>
+    <t>74HC00D,653</t>
+  </si>
+  <si>
+    <t>IC GATE NAND 4CH 2-INP 14-SO</t>
+  </si>
+  <si>
+    <t>http://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=200735391&amp;uq=636027004667341576</t>
+  </si>
+  <si>
+    <t>http://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=200735074&amp;uq=636027004667321576</t>
+  </si>
+  <si>
+    <t>IC COMP R-RINOUT SINGLE SOT23-6</t>
+  </si>
+  <si>
+    <t>LT1719CS6#TRMPBF</t>
+  </si>
+  <si>
+    <t>LT1719CS6#TRMPBFCT-ND</t>
+  </si>
+  <si>
+    <t>http://www.digikey.com/product-detail/en/linear-technology/LT1809CS6-TRMPBF/LT1809CS6-TRMPBFCT-ND/891475</t>
+  </si>
+  <si>
+    <t>http://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=200735921&amp;uq=636027008193055389</t>
+  </si>
+  <si>
+    <t>LT1809CS6#TRMPBFCT-ND</t>
+  </si>
+  <si>
+    <t>LT1809CS6#TRMPBF</t>
+  </si>
+  <si>
+    <t>IC OPAMP GP 180MHZ RRO TSOT23-6</t>
+  </si>
+  <si>
+    <t>Res</t>
+  </si>
+  <si>
+    <t>res</t>
+  </si>
+  <si>
+    <t>311-51UCT-ND</t>
+  </si>
+  <si>
+    <t>RT0402DRE0751RL</t>
+  </si>
+  <si>
+    <t>RES SMD 51 OHM 0.5% 1/16W 0402</t>
+  </si>
+  <si>
+    <t>http://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=200735381&amp;uq=636027011087621576</t>
+  </si>
+  <si>
+    <t>490-7004-1-ND</t>
+  </si>
+  <si>
+    <t>PVZ3A102C01R00</t>
+  </si>
+  <si>
+    <t>TRIMMER 1K OHM 0.1W SMD</t>
+  </si>
+  <si>
+    <t>http://www.digikey.com/product-detail/en/yageo/RT0402DRE0751RL/311-51UCT-ND/1037159</t>
+  </si>
+  <si>
+    <t>http://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=200737314&amp;uq=636027016498025803</t>
+  </si>
+  <si>
+    <t>RES SMD 10K OHM 0.1% 1/16W 0402</t>
+  </si>
+  <si>
+    <t>RNCF0402BTE10K0</t>
+  </si>
+  <si>
+    <t>RNCF0402BTE10K0CT-ND</t>
   </si>
 </sst>
 </file>
@@ -316,7 +211,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.0000_);_(&quot;$&quot;* \(#,##0.0000\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -368,6 +263,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -391,7 +292,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -410,6 +311,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -505,6 +410,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -540,6 +462,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -692,10 +631,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J25"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -747,487 +686,301 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>57</v>
+        <v>22</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="F2" s="13">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G2" s="9">
-        <v>4.4000000000000003E-3</v>
+        <v>3.7000000000000002E-3</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>54</v>
+        <v>21</v>
       </c>
       <c r="I2" s="11">
-        <v>8.8000000000000005E-3</v>
+        <f>(F2*G2)</f>
+        <v>1.4800000000000001E-2</v>
       </c>
       <c r="J2" s="14" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B3" s="7"/>
+        <v>11</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>19</v>
+      </c>
       <c r="C3" s="7" t="s">
-        <v>65</v>
+        <v>14</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>66</v>
+        <v>16</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>16</v>
       </c>
       <c r="F3" s="13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G3" s="9">
-        <v>3.7000000000000002E-3</v>
+        <v>3.37</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>54</v>
+        <v>15</v>
       </c>
       <c r="I3" s="11">
-        <v>1.11E-2</v>
+        <f t="shared" ref="I3:I9" si="0">(F3*G3)</f>
+        <v>13.48</v>
       </c>
       <c r="J3" s="14" t="s">
-        <v>72</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="F4" s="8">
+      <c r="D4" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" s="13">
         <v>2</v>
       </c>
       <c r="G4" s="9">
-        <v>4.0000000000000001E-3</v>
+        <v>0.44</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>54</v>
+        <v>15</v>
       </c>
       <c r="I4" s="11">
-        <v>8.0000000000000002E-3</v>
+        <f t="shared" si="0"/>
+        <v>0.88</v>
       </c>
       <c r="J4" s="14" t="s">
-        <v>60</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="B5" s="7"/>
+        <v>12</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>18</v>
+      </c>
       <c r="C5" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>68</v>
+        <v>36</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>38</v>
       </c>
       <c r="F5" s="13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G5" s="9">
-        <v>3.7000000000000002E-3</v>
+        <v>4.4800000000000004</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>54</v>
+        <v>15</v>
       </c>
       <c r="I5" s="11">
-        <v>1.11E-2</v>
+        <f t="shared" si="0"/>
+        <v>17.920000000000002</v>
       </c>
       <c r="J5" s="14" t="s">
-        <v>71</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B6" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="C6" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>27</v>
+      <c r="D6" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>41</v>
       </c>
       <c r="F6" s="13">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G6" s="9">
-        <v>3.37</v>
+        <v>4.47</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="I6" s="11">
-        <v>3.37</v>
+        <f t="shared" si="0"/>
+        <v>17.88</v>
       </c>
       <c r="J6" s="14" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="E7" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="F7" s="13">
-        <v>1</v>
+      <c r="C7" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="F7" s="8">
+        <v>4</v>
       </c>
       <c r="G7" s="9">
-        <v>0.20499999999999999</v>
+        <v>0.16400000000000001</v>
       </c>
       <c r="H7" s="10" t="s">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="I7" s="11">
-        <v>0.20499999999999999</v>
-      </c>
-      <c r="J7" s="14" t="s">
-        <v>18</v>
+        <f t="shared" si="0"/>
+        <v>0.65600000000000003</v>
+      </c>
+      <c r="J7" s="15" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="C8" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="F8" s="8">
+        <v>4</v>
+      </c>
+      <c r="G8" s="9">
+        <v>2.75E-2</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="I8" s="11">
+        <f t="shared" si="0"/>
+        <v>0.11</v>
+      </c>
+      <c r="J8" s="15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="F9" s="2">
+        <v>4</v>
+      </c>
+      <c r="G9" s="3">
+        <v>0.31</v>
+      </c>
+      <c r="H9" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F8" s="13">
-        <v>1</v>
-      </c>
-      <c r="G8" s="9">
-        <v>4.4800000000000004</v>
-      </c>
-      <c r="H8" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="I8" s="11">
-        <v>4.4800000000000004</v>
-      </c>
-      <c r="J8" s="14" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="F9" s="13">
-        <v>1</v>
-      </c>
-      <c r="G9" s="9">
-        <v>0.35199999999999998</v>
-      </c>
-      <c r="H9" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="I9" s="11">
-        <v>0.35199999999999998</v>
-      </c>
-      <c r="J9" s="14" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="F10" s="8">
-        <v>4</v>
-      </c>
-      <c r="G10" s="9">
-        <v>0.36</v>
-      </c>
-      <c r="H10" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="I10" s="11">
-        <v>1.44</v>
-      </c>
-      <c r="J10" s="14" t="s">
-        <v>53</v>
+      <c r="I9" s="5">
+        <f t="shared" si="0"/>
+        <v>1.24</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C10"/>
+      <c r="F10" s="2"/>
+      <c r="I10" s="5">
+        <f>SUM(I2:I9)</f>
+        <v>52.180800000000005</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="F11" s="13">
-        <v>1</v>
-      </c>
-      <c r="G11" s="7">
-        <v>1.835</v>
-      </c>
-      <c r="H11" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="I11" s="11">
-        <v>1.835</v>
-      </c>
-      <c r="J11" s="14" t="s">
-        <v>52</v>
-      </c>
+      <c r="F11" s="2"/>
+      <c r="I11" s="5"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="F12" s="8">
-        <v>1</v>
-      </c>
-      <c r="G12" s="9">
-        <v>0</v>
-      </c>
-      <c r="H12" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="I12" s="11">
-        <v>0</v>
-      </c>
-      <c r="J12" s="14" t="s">
-        <v>52</v>
-      </c>
+      <c r="F12" s="2"/>
+      <c r="I12" s="5"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="F13" s="8">
-        <v>1</v>
-      </c>
-      <c r="G13" s="9">
-        <v>2.0059999999999998</v>
-      </c>
-      <c r="H13" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="I13" s="11">
-        <v>2.0059999999999998</v>
-      </c>
-      <c r="J13" s="15" t="s">
-        <v>78</v>
-      </c>
+      <c r="F13" s="2"/>
+      <c r="I13" s="5"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="F14" s="8">
-        <v>1</v>
-      </c>
-      <c r="G14" s="9">
-        <v>0.19500000000000001</v>
-      </c>
-      <c r="H14" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="I14" s="11">
-        <v>0.19500000000000001</v>
-      </c>
-      <c r="J14" s="15" t="s">
-        <v>81</v>
-      </c>
+      <c r="I14" s="5"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="F15" s="8">
-        <v>1</v>
-      </c>
-      <c r="G15" s="9">
-        <v>4.7000000000000002E-3</v>
-      </c>
-      <c r="H15" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="I15" s="11">
-        <v>0.47</v>
-      </c>
-      <c r="J15" s="15" t="s">
-        <v>87</v>
-      </c>
+      <c r="F15" s="2"/>
+      <c r="I15" s="5"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F16" s="2"/>
-      <c r="I16" s="5">
-        <f>SUM(I2:I15)</f>
-        <v>14.392000000000001</v>
-      </c>
-    </row>
-    <row r="17" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F17" s="2"/>
+      <c r="I16" s="5"/>
+    </row>
+    <row r="17" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I17" s="5"/>
     </row>
-    <row r="18" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F18" s="2"/>
+    <row r="18" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I18" s="5"/>
-    </row>
-    <row r="19" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F19" s="2"/>
-      <c r="I19" s="5"/>
-    </row>
-    <row r="20" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F20" s="2"/>
-      <c r="I20" s="5"/>
-    </row>
-    <row r="21" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="I21" s="5"/>
-    </row>
-    <row r="22" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F22" s="2"/>
-      <c r="I22" s="5"/>
-    </row>
-    <row r="23" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F23" s="2"/>
-      <c r="I23" s="5"/>
-    </row>
-    <row r="24" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="I24" s="5"/>
-    </row>
-    <row r="25" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="I25" s="5"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:J1">
@@ -1236,22 +989,9 @@
     </sortState>
   </autoFilter>
   <hyperlinks>
-    <hyperlink ref="J7" r:id="rId1"/>
-    <hyperlink ref="J8" r:id="rId2"/>
-    <hyperlink ref="J9" r:id="rId3"/>
-    <hyperlink ref="J6" r:id="rId4"/>
-    <hyperlink ref="J11" r:id="rId5"/>
-    <hyperlink ref="J10" r:id="rId6" location="93505a101/=12gwufp"/>
-    <hyperlink ref="J2" r:id="rId7"/>
-    <hyperlink ref="J4" r:id="rId8"/>
-    <hyperlink ref="J5" r:id="rId9"/>
-    <hyperlink ref="J3" r:id="rId10"/>
-    <hyperlink ref="J12" r:id="rId11"/>
-    <hyperlink ref="J13" r:id="rId12"/>
-    <hyperlink ref="J14" r:id="rId13"/>
-    <hyperlink ref="J15" r:id="rId14"/>
+    <hyperlink ref="J2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId15"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/pcb/bom.xlsx
+++ b/pcb/bom.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="59">
   <si>
     <t>QTY</t>
   </si>
@@ -201,6 +201,9 @@
   </si>
   <si>
     <t>RNCF0402BTE10K0CT-ND</t>
+  </si>
+  <si>
+    <t>R</t>
   </si>
 </sst>
 </file>
@@ -634,7 +637,7 @@
   <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -916,8 +919,11 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>58</v>
+      </c>
       <c r="B9" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C9" s="17" t="s">
         <v>55</v>
